--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2582780.061798808</v>
+        <v>-2585690.812816849</v>
       </c>
     </row>
     <row r="7">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>250.9858676618302</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>201.2780770696939</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>117.0047334082889</v>
+        <v>117.0047334082892</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>153.7714094203873</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.4825304253034</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.9858676618281</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>142.5669560647737</v>
       </c>
       <c r="Y2" t="n">
-        <v>250.9858676618302</v>
+        <v>250.9858676618281</v>
       </c>
     </row>
     <row r="3">
@@ -741,22 +741,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0462866966123</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>44.73321547072644</v>
+        <v>44.73321547072657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>19.61575307735286</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>54.96528149798161</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8560379713302</v>
+        <v>92.10122697943179</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>250.9858676618302</v>
+        <v>250.9858676618281</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>126.2269799267141</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9034249120584</v>
       </c>
       <c r="H4" t="n">
-        <v>152.5578247930797</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>128.3929887235662</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2987658845707</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>209.4986360181437</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>250.9858676618302</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>212.5689651179051</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -984,13 +984,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>43.9218040015056</v>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>82.611796172141</v>
+        <v>56.61455412386961</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>15.07219909888209</v>
@@ -1102,25 +1102,25 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>178.3777805434741</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>143.9955886308568</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>218.9176122384046</v>
       </c>
       <c r="C8" t="n">
-        <v>66.48158626630688</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1212,7 +1212,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>156.7251565397998</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1221,13 +1221,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>66.11938856960974</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
         <v>26.17372043046393</v>
@@ -1263,13 +1263,13 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
         <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.1597366528552</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>170.2847386897976</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>155.1980648094033</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>94.30373791808235</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,10 +1901,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701368</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>32.27552175740477</v>
       </c>
       <c r="U19" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722639</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>148.2579495257423</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634825</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>187.2551470558699</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576182</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,13 +2716,13 @@
         <v>142.9621736065882</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261725</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G28" t="n">
         <v>141.2394908002292</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576182</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2959,7 +2959,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308914</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002292</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3004,7 +3004,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3038,10 +3038,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417135</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3196,7 +3196,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002292</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652574</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444159</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,10 +3424,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3436,13 +3436,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652568</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,10 +3661,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3673,10 +3673,10 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541844</v>
       </c>
       <c r="I40" t="n">
         <v>56.98118882652581</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695709</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652574</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695709</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898977</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541843</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,19 +4189,19 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972039</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317884</v>
       </c>
       <c r="W46" t="n">
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.3000058600552</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595.0977362208383</v>
+        <v>138.2654688152585</v>
       </c>
       <c r="C2" t="n">
-        <v>595.0977362208383</v>
+        <v>138.2654688152585</v>
       </c>
       <c r="D2" t="n">
-        <v>595.0977362208383</v>
+        <v>138.2654688152585</v>
       </c>
       <c r="E2" t="n">
-        <v>341.5766577745452</v>
+        <v>138.2654688152585</v>
       </c>
       <c r="F2" t="n">
-        <v>341.5766577745452</v>
+        <v>138.2654688152585</v>
       </c>
       <c r="G2" t="n">
-        <v>138.2654688152584</v>
+        <v>138.2654688152585</v>
       </c>
       <c r="H2" t="n">
-        <v>138.2654688152584</v>
+        <v>138.2654688152585</v>
       </c>
       <c r="I2" t="n">
-        <v>20.07886941294641</v>
+        <v>20.07886941294625</v>
       </c>
       <c r="J2" t="n">
-        <v>44.56341783364314</v>
+        <v>44.56341783364223</v>
       </c>
       <c r="K2" t="n">
-        <v>131.9979271978304</v>
+        <v>131.9979271978286</v>
       </c>
       <c r="L2" t="n">
-        <v>277.3699294102321</v>
+        <v>277.3699294102292</v>
       </c>
       <c r="M2" t="n">
-        <v>470.793729501726</v>
+        <v>470.7937295017219</v>
       </c>
       <c r="N2" t="n">
-        <v>671.9611372758905</v>
+        <v>671.9611372758853</v>
       </c>
       <c r="O2" t="n">
-        <v>848.5825547535004</v>
+        <v>848.582554753494</v>
       </c>
       <c r="P2" t="n">
-        <v>964.8238474307736</v>
+        <v>964.8238474307661</v>
       </c>
       <c r="Q2" t="n">
-        <v>1003.943470647321</v>
+        <v>1003.943470647312</v>
       </c>
       <c r="R2" t="n">
-        <v>1003.943470647321</v>
+        <v>1003.943470647312</v>
       </c>
       <c r="S2" t="n">
-        <v>848.6188146671315</v>
+        <v>1003.943470647312</v>
       </c>
       <c r="T2" t="n">
-        <v>848.6188146671315</v>
+        <v>789.3146520358948</v>
       </c>
       <c r="U2" t="n">
-        <v>848.6188146671315</v>
+        <v>535.7935735896039</v>
       </c>
       <c r="V2" t="n">
-        <v>848.6188146671315</v>
+        <v>535.7935735896039</v>
       </c>
       <c r="W2" t="n">
-        <v>848.6188146671315</v>
+        <v>535.7935735896039</v>
       </c>
       <c r="X2" t="n">
-        <v>848.6188146671315</v>
+        <v>391.7865472615496</v>
       </c>
       <c r="Y2" t="n">
-        <v>595.0977362208383</v>
+        <v>138.2654688152585</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>211.7984935181083</v>
+        <v>657.3908497975549</v>
       </c>
       <c r="C3" t="n">
-        <v>211.7984935181083</v>
+        <v>657.3908497975549</v>
       </c>
       <c r="D3" t="n">
-        <v>211.7984935181083</v>
+        <v>508.4564401363036</v>
       </c>
       <c r="E3" t="n">
-        <v>211.7984935181083</v>
+        <v>349.2189851308481</v>
       </c>
       <c r="F3" t="n">
-        <v>65.26393554499332</v>
+        <v>202.684427157733</v>
       </c>
       <c r="G3" t="n">
-        <v>65.26393554499332</v>
+        <v>65.26393554499329</v>
       </c>
       <c r="H3" t="n">
-        <v>65.26393554499332</v>
+        <v>65.26393554499329</v>
       </c>
       <c r="I3" t="n">
-        <v>20.07886941294641</v>
+        <v>20.07886941294625</v>
       </c>
       <c r="J3" t="n">
-        <v>20.07886941294641</v>
+        <v>20.07886941294625</v>
       </c>
       <c r="K3" t="n">
-        <v>90.99537442422469</v>
+        <v>90.9953744242239</v>
       </c>
       <c r="L3" t="n">
-        <v>232.6739082073316</v>
+        <v>232.6739082073299</v>
       </c>
       <c r="M3" t="n">
-        <v>417.3629427597638</v>
+        <v>481.1499171925398</v>
       </c>
       <c r="N3" t="n">
-        <v>665.8389517449756</v>
+        <v>685.1357658459472</v>
       </c>
       <c r="O3" t="n">
-        <v>830.2263561938564</v>
+        <v>849.523170294827</v>
       </c>
       <c r="P3" t="n">
-        <v>978.5909991640633</v>
+        <v>962.125488771355</v>
       </c>
       <c r="Q3" t="n">
-        <v>1003.943470647321</v>
+        <v>1003.943470647312</v>
       </c>
       <c r="R3" t="n">
-        <v>984.1295786499945</v>
+        <v>1003.943470647312</v>
       </c>
       <c r="S3" t="n">
-        <v>928.6090922883969</v>
+        <v>1003.943470647312</v>
       </c>
       <c r="T3" t="n">
-        <v>928.6090922883969</v>
+        <v>1003.943470647312</v>
       </c>
       <c r="U3" t="n">
-        <v>700.4716801961442</v>
+        <v>910.9119282438459</v>
       </c>
       <c r="V3" t="n">
-        <v>465.3195719644015</v>
+        <v>910.9119282438459</v>
       </c>
       <c r="W3" t="n">
-        <v>211.7984935181083</v>
+        <v>657.3908497975549</v>
       </c>
       <c r="X3" t="n">
-        <v>211.7984935181083</v>
+        <v>657.3908497975549</v>
       </c>
       <c r="Y3" t="n">
-        <v>211.7984935181083</v>
+        <v>657.3908497975549</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>620.7325046014656</v>
+        <v>338.7848269182703</v>
       </c>
       <c r="C4" t="n">
-        <v>451.7963216735587</v>
+        <v>338.7848269182703</v>
       </c>
       <c r="D4" t="n">
-        <v>301.679682261223</v>
+        <v>188.6681875059345</v>
       </c>
       <c r="E4" t="n">
-        <v>301.679682261223</v>
+        <v>188.6681875059345</v>
       </c>
       <c r="F4" t="n">
-        <v>174.1776823352491</v>
+        <v>188.6681875059345</v>
       </c>
       <c r="G4" t="n">
-        <v>174.1776823352491</v>
+        <v>20.07886941294625</v>
       </c>
       <c r="H4" t="n">
-        <v>20.07886941294641</v>
+        <v>20.07886941294625</v>
       </c>
       <c r="I4" t="n">
-        <v>20.07886941294641</v>
+        <v>20.07886941294625</v>
       </c>
       <c r="J4" t="n">
-        <v>20.07886941294641</v>
+        <v>20.07886941294625</v>
       </c>
       <c r="K4" t="n">
-        <v>91.23722867619094</v>
+        <v>91.23722867618517</v>
       </c>
       <c r="L4" t="n">
-        <v>278.6241424317926</v>
+        <v>278.6241424317863</v>
       </c>
       <c r="M4" t="n">
-        <v>486.5864924975529</v>
+        <v>486.5864924975461</v>
       </c>
       <c r="N4" t="n">
-        <v>695.03857911931</v>
+        <v>695.0385791193028</v>
       </c>
       <c r="O4" t="n">
-        <v>871.5615245479095</v>
+        <v>871.5615245479017</v>
       </c>
       <c r="P4" t="n">
-        <v>999.0867174143517</v>
+        <v>999.0867174143436</v>
       </c>
       <c r="Q4" t="n">
-        <v>1003.943470647321</v>
+        <v>1003.943470647312</v>
       </c>
       <c r="R4" t="n">
-        <v>874.2535830477588</v>
+        <v>1003.943470647312</v>
       </c>
       <c r="S4" t="n">
-        <v>874.2535830477588</v>
+        <v>1003.943470647312</v>
       </c>
       <c r="T4" t="n">
-        <v>874.2535830477588</v>
+        <v>778.3891616729984</v>
       </c>
       <c r="U4" t="n">
-        <v>874.2535830477588</v>
+        <v>566.7743778162876</v>
       </c>
       <c r="V4" t="n">
-        <v>874.2535830477588</v>
+        <v>566.7743778162876</v>
       </c>
       <c r="W4" t="n">
-        <v>620.7325046014656</v>
+        <v>566.7743778162876</v>
       </c>
       <c r="X4" t="n">
-        <v>620.7325046014656</v>
+        <v>338.7848269182703</v>
       </c>
       <c r="Y4" t="n">
-        <v>620.7325046014656</v>
+        <v>338.7848269182703</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>522.1002068716687</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="C5" t="n">
         <v>307.3840804899464</v>
       </c>
       <c r="D5" t="n">
-        <v>307.3840804899464</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
         <v>41.00642392276842</v>
@@ -4574,7 +4574,7 @@
         <v>294.5174947515904</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991316</v>
@@ -4601,16 +4601,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X5" t="n">
-        <v>788.4778634388466</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="Y5" t="n">
-        <v>522.1002068716687</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>340.3997601587378</v>
+        <v>386.4501562417419</v>
       </c>
       <c r="C6" t="n">
-        <v>165.9467308776107</v>
+        <v>211.9971269606149</v>
       </c>
       <c r="D6" t="n">
-        <v>165.9467308776107</v>
+        <v>211.9971269606149</v>
       </c>
       <c r="E6" t="n">
-        <v>165.9467308776107</v>
+        <v>211.9971269606149</v>
       </c>
       <c r="F6" t="n">
-        <v>165.9467308776107</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776107</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H6" t="n">
         <v>65.46256898749988</v>
@@ -4653,16 +4653,16 @@
         <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>478.4519222278687</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4671,25 +4671,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>906.2192216098642</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>822.7729628501259</v>
+        <v>997.6691016990856</v>
       </c>
       <c r="U6" t="n">
-        <v>594.6371168869393</v>
+        <v>997.6691016990856</v>
       </c>
       <c r="V6" t="n">
-        <v>594.6371168869393</v>
+        <v>762.5169934673428</v>
       </c>
       <c r="W6" t="n">
-        <v>340.3997601587378</v>
+        <v>762.5169934673428</v>
       </c>
       <c r="X6" t="n">
-        <v>340.3997601587378</v>
+        <v>554.66549326181</v>
       </c>
       <c r="Y6" t="n">
-        <v>340.3997601587378</v>
+        <v>554.66549326181</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>313.6273447026937</v>
+        <v>334.3512869290737</v>
       </c>
       <c r="C7" t="n">
-        <v>313.6273447026937</v>
+        <v>334.3512869290737</v>
       </c>
       <c r="D7" t="n">
-        <v>313.6273447026937</v>
+        <v>184.2346475167379</v>
       </c>
       <c r="E7" t="n">
-        <v>313.6273447026937</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F7" t="n">
-        <v>313.6273447026937</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>313.6273447026937</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
         <v>36.32155393434483</v>
@@ -4750,25 +4750,25 @@
         <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>719.2759572512189</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T7" t="n">
-        <v>493.8069210092332</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="U7" t="n">
-        <v>313.6273447026937</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="V7" t="n">
-        <v>313.6273447026937</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="W7" t="n">
-        <v>313.6273447026937</v>
+        <v>555.1438660726038</v>
       </c>
       <c r="X7" t="n">
-        <v>313.6273447026937</v>
+        <v>555.1438660726038</v>
       </c>
       <c r="Y7" t="n">
-        <v>313.6273447026937</v>
+        <v>334.3512869290737</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>515.2467085824435</v>
+        <v>1221.096512122545</v>
       </c>
       <c r="C8" t="n">
-        <v>448.0935911417295</v>
+        <v>852.1339951821335</v>
       </c>
       <c r="D8" t="n">
-        <v>448.0935911417295</v>
+        <v>852.1339951821335</v>
       </c>
       <c r="E8" t="n">
-        <v>62.30533854348519</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="F8" t="n">
         <v>55.35983779428172</v>
@@ -4829,25 +4829,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>1826.151173794699</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>1572.544009457208</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>1241.481122113637</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="W8" t="n">
-        <v>888.7124668435233</v>
+        <v>1815.691171634539</v>
       </c>
       <c r="X8" t="n">
-        <v>515.2467085824435</v>
+        <v>1442.225413373459</v>
       </c>
       <c r="Y8" t="n">
-        <v>515.2467085824435</v>
+        <v>1442.225413373459</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>728.176975589136</v>
+        <v>768.6187622948546</v>
       </c>
       <c r="C9" t="n">
-        <v>728.176975589136</v>
+        <v>610.3105233657639</v>
       </c>
       <c r="D9" t="n">
-        <v>579.2425659278847</v>
+        <v>461.3761137045125</v>
       </c>
       <c r="E9" t="n">
-        <v>420.0051109224292</v>
+        <v>302.138658699057</v>
       </c>
       <c r="F9" t="n">
-        <v>273.4705529493142</v>
+        <v>302.138658699057</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5945591644301</v>
+        <v>165.2626649141729</v>
       </c>
       <c r="H9" t="n">
         <v>69.80729798300612</v>
@@ -4884,25 +4884,25 @@
         <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>333.5994704680805</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>591.1506060280681</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>911.0575014965773</v>
+        <v>1018.710078441079</v>
       </c>
       <c r="N9" t="n">
-        <v>1253.840025491209</v>
+        <v>1555.403885599981</v>
       </c>
       <c r="O9" t="n">
-        <v>1545.199271745775</v>
+        <v>1846.763131854547</v>
       </c>
       <c r="P9" t="n">
-        <v>2074.985828260213</v>
+        <v>2061.271547415447</v>
       </c>
       <c r="Q9" t="n">
-        <v>2168.459826904653</v>
+        <v>2154.745546059887</v>
       </c>
       <c r="R9" t="n">
         <v>2168.459826904653</v>
@@ -4911,22 +4911,22 @@
         <v>2029.495166406371</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.495166406371</v>
+        <v>1834.784844880347</v>
       </c>
       <c r="U9" t="n">
-        <v>1801.393576539635</v>
+        <v>1606.683255013611</v>
       </c>
       <c r="V9" t="n">
-        <v>1566.241468307892</v>
+        <v>1606.683255013611</v>
       </c>
       <c r="W9" t="n">
-        <v>1312.004111579691</v>
+        <v>1352.445898285409</v>
       </c>
       <c r="X9" t="n">
-        <v>1104.152611374158</v>
+        <v>1144.594398079877</v>
       </c>
       <c r="Y9" t="n">
-        <v>896.3923126092041</v>
+        <v>936.8340993149227</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>657.2250599586391</v>
+        <v>822.032874759503</v>
       </c>
       <c r="C10" t="n">
-        <v>488.2888770307322</v>
+        <v>653.0966918315961</v>
       </c>
       <c r="D10" t="n">
-        <v>338.1722376183965</v>
+        <v>502.9800524192603</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2591440360034</v>
+        <v>355.0669588368672</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>208.1770113389569</v>
       </c>
       <c r="G10" t="n">
         <v>43.36919653809306</v>
@@ -4993,19 +4993,19 @@
         <v>1486.355378693647</v>
       </c>
       <c r="U10" t="n">
-        <v>1314.350592138296</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="V10" t="n">
-        <v>1059.666103932409</v>
+        <v>1231.67089048776</v>
       </c>
       <c r="W10" t="n">
-        <v>1059.666103932409</v>
+        <v>1231.67089048776</v>
       </c>
       <c r="X10" t="n">
-        <v>1059.666103932409</v>
+        <v>1003.681339589743</v>
       </c>
       <c r="Y10" t="n">
-        <v>838.8735247888789</v>
+        <v>1003.681339589743</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,52 +5027,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,16 +5127,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958739</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C13" t="n">
-        <v>633.992644467967</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>483.8760050556313</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>335.9629114732381</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>189.0729639753278</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>189.0729639753278</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261136</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5270,34 +5270,34 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
@@ -5364,16 +5364,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,13 +5501,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
@@ -5516,37 +5516,37 @@
         <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190824</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190824</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2414.36154645157</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111712</v>
@@ -5756,10 +5756,10 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5768,34 +5768,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1350.99156482496</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1350.99156482496</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5975,25 +5975,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.55866301478</v>
@@ -6002,37 +6002,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6154,7 +6154,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,52 +6212,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C28" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
         <v>656.9646031150025</v>
@@ -6379,31 +6379,31 @@
         <v>151.3734194384021</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J28" t="n">
         <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R28" t="n">
         <v>2596.781734931274</v>
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,13 +6449,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6467,28 +6467,28 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474785</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
         <v>411.2214559580116</v>
@@ -6613,34 +6613,34 @@
         <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J31" t="n">
         <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931274</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075823</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="33">
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N33" t="n">
-        <v>1702.07903472198</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319332</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6862,22 +6862,22 @@
         <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362708</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190824</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
         <v>782.551295565682</v>
@@ -7084,19 +7084,19 @@
         <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311325</v>
@@ -7108,13 +7108,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
         <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694708</v>
@@ -7202,7 +7202,7 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656823</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7339,7 +7339,7 @@
         <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,19 +7397,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075811</v>
@@ -7424,16 +7424,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492579</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J43" t="n">
         <v>198.0944824954151</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,10 +7603,10 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X43" t="n">
         <v>1280.33868158239</v>
@@ -7634,43 +7634,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492579</v>
@@ -7719,25 +7719,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J46" t="n">
         <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,13 +7819,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -7837,13 +7837,13 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X46" t="n">
         <v>1280.33868158239</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>63.28652962351975</v>
+        <v>63.28652962352021</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>4.277795609671273</v>
+        <v>4.277795609671642</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>64.43128730583692</v>
       </c>
       <c r="N3" t="n">
-        <v>44.93955589071055</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>36.12356009462442</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>16.63182867949543</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>74.53633578495058</v>
+        <v>74.53633578494531</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8301,10 +8301,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>45.78351343583191</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>51.53815565544045</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,28 +8532,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>87.83296830063495</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>196.5729450122531</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>195.8699829942122</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>130.9445024104316</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>132.0989621538194</v>
       </c>
       <c r="G2" t="n">
-        <v>211.6001443657546</v>
+        <v>412.8782214354485</v>
       </c>
       <c r="H2" t="n">
-        <v>314.6447268146769</v>
+        <v>314.644726814677</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.1658239596334852</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>227.1641446136953</v>
       </c>
       <c r="Y2" t="n">
-        <v>135.2520709942234</v>
+        <v>135.2520709942255</v>
       </c>
     </row>
     <row r="3">
@@ -22626,7 +22626,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -22641,7 +22641,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.70692894066508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22674,10 +22674,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>92.62240264952294</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>142.3416932176459</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22714,19 +22714,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>19.19406809621714</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.5578247930797</v>
       </c>
       <c r="I4" t="n">
-        <v>122.7447466664173</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>16.46908075616481</v>
+        <v>16.46908075616504</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>128.3929887235664</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22759,19 +22759,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2597082048691</v>
+        <v>76.76107218672539</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>35.53713067476085</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>24.63391537253398</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>45.99097492814151</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>185.1299285698835</v>
       </c>
       <c r="U19" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194134</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>138.2650488108487</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194134</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>99.26785128072115</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1135489.566989683</v>
+        <v>1135489.566989682</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1403306.875835483</v>
+        <v>1403306.875835482</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1403306.875835482</v>
+        <v>1403306.875835483</v>
       </c>
     </row>
     <row r="7">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16230.45558071831</v>
+        <v>16230.4555807183</v>
       </c>
       <c r="C2" t="n">
         <v>20526.04424660708</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="E2" t="n">
-        <v>20178.66499225015</v>
+        <v>20178.66499225016</v>
       </c>
       <c r="F2" t="n">
         <v>20178.66499225016</v>
       </c>
       <c r="G2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="H2" t="n">
         <v>20178.66499225015</v>
       </c>
       <c r="I2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="J2" t="n">
         <v>20526.0442466071</v>
@@ -26341,7 +26341,7 @@
         <v>20526.0442466071</v>
       </c>
       <c r="L2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="M2" t="n">
         <v>20526.0442466071</v>
@@ -26350,7 +26350,7 @@
         <v>20526.0442466071</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="P2" t="n">
         <v>20526.0442466071</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>665264.5711858236</v>
+        <v>665264.5711858212</v>
       </c>
       <c r="C3" t="n">
-        <v>14089.18501681293</v>
+        <v>14089.18501681525</v>
       </c>
       <c r="D3" t="n">
         <v>291724.1809599825</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742653</v>
+        <v>601443.2075742654</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>85096.66435214365</v>
+        <v>85096.66435214315</v>
       </c>
       <c r="K3" t="n">
-        <v>3275.783079837729</v>
+        <v>3275.783079838204</v>
       </c>
       <c r="L3" t="n">
         <v>70460.80690932018</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.380551598</v>
+        <v>157146.3805515981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363194</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157915.7494984979</v>
+        <v>157915.7494984984</v>
       </c>
       <c r="C4" t="n">
         <v>252122.0652631775</v>
@@ -26430,34 +26430,34 @@
         <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680579</v>
+        <v>11776.97621680573</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.9762168058</v>
+        <v>11776.97621680572</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.9762168058</v>
+        <v>11776.97621680573</v>
       </c>
       <c r="J4" t="n">
-        <v>19767.83547989925</v>
+        <v>19767.83547989917</v>
       </c>
       <c r="K4" t="n">
-        <v>19767.83547989928</v>
+        <v>19767.83547989917</v>
       </c>
       <c r="L4" t="n">
-        <v>19767.83547989928</v>
+        <v>19767.83547989918</v>
       </c>
       <c r="M4" t="n">
-        <v>19767.83547989923</v>
+        <v>19767.83547989918</v>
       </c>
       <c r="N4" t="n">
-        <v>19767.83547989925</v>
+        <v>19767.83547989922</v>
       </c>
       <c r="O4" t="n">
-        <v>19767.83547989928</v>
+        <v>19767.83547989919</v>
       </c>
       <c r="P4" t="n">
-        <v>19767.83547989928</v>
+        <v>19767.83547989917</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62035.0853249597</v>
+        <v>62035.08532495952</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
@@ -26482,13 +26482,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
         <v>103164.1158539154</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-868984.9504285628</v>
+        <v>-869414.5092951496</v>
       </c>
       <c r="C6" t="n">
-        <v>-308733.0092376496</v>
+        <v>-308733.0092376519</v>
       </c>
       <c r="D6" t="n">
-        <v>-525881.9516468638</v>
+        <v>-525881.9516468637</v>
       </c>
       <c r="E6" t="n">
-        <v>-694164.0486227281</v>
+        <v>-694198.786548164</v>
       </c>
       <c r="F6" t="n">
-        <v>-92720.8410484628</v>
+        <v>-92755.57897389847</v>
       </c>
       <c r="G6" t="n">
-        <v>-92720.84104846277</v>
+        <v>-92755.57897389856</v>
       </c>
       <c r="H6" t="n">
-        <v>-92720.84104846277</v>
+        <v>-92755.57897389842</v>
       </c>
       <c r="I6" t="n">
-        <v>-92720.84104846277</v>
+        <v>-92755.57897389843</v>
       </c>
       <c r="J6" t="n">
-        <v>-187502.5714393512</v>
+        <v>-187502.5714393507</v>
       </c>
       <c r="K6" t="n">
-        <v>-105681.6901670453</v>
+        <v>-105681.6901670457</v>
       </c>
       <c r="L6" t="n">
-        <v>-172866.7139965278</v>
+        <v>-172866.7139965277</v>
       </c>
       <c r="M6" t="n">
         <v>-259552.2876388056</v>
       </c>
       <c r="N6" t="n">
-        <v>-102405.9070872076</v>
+        <v>-102405.9070872074</v>
       </c>
       <c r="O6" t="n">
-        <v>-121833.6250808394</v>
+        <v>-121833.6250808395</v>
       </c>
       <c r="P6" t="n">
-        <v>-102405.9070872076</v>
+        <v>-102405.9070872075</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203969</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>24.28464749203969</v>
       </c>
-      <c r="L2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203964</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>603.0983748220376</v>
+        <v>603.0983748220358</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>250.9858676618302</v>
+        <v>250.9858676618281</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
@@ -26796,7 +26796,7 @@
         <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>603.0983748220376</v>
+        <v>603.0983748220358</v>
       </c>
       <c r="C3" t="n">
-        <v>10.95663894744064</v>
+        <v>10.95663894744246</v>
       </c>
       <c r="D3" t="n">
         <v>239.6556507682059</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>250.9858676618302</v>
+        <v>250.9858676618281</v>
       </c>
       <c r="C4" t="n">
-        <v>12.72801233967598</v>
+        <v>12.72801233967806</v>
       </c>
       <c r="D4" t="n">
         <v>278.4010767246571</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>250.9858676618302</v>
+        <v>250.9858676618283</v>
       </c>
       <c r="K4" t="n">
-        <v>12.72801233967598</v>
+        <v>12.72801233967783</v>
       </c>
       <c r="L4" t="n">
         <v>278.4010767246571</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>250.9858676618302</v>
+        <v>250.9858676618281</v>
       </c>
       <c r="K4" t="n">
-        <v>12.72801233967598</v>
+        <v>12.72801233967806</v>
       </c>
       <c r="L4" t="n">
         <v>278.4010767246571</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>274.777083587892</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>153.7714094203875</v>
       </c>
       <c r="T2" t="n">
-        <v>212.4825304253033</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1516916214616</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27458,22 +27458,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0462866966123</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.70692894066511</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>19.61575307735312</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.5876841475046</v>
       </c>
       <c r="T3" t="n">
-        <v>52.59428635961487</v>
+        <v>194.9359795772608</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>133.7548109918984</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0.7091154990894495</v>
+        <v>0.7091154990915243</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9034249120584</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.7447466664174</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>205.0634900937945</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2987658845707</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>152.7039266531025</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27673,16 +27673,16 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>157.1621355605639</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27704,13 +27704,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,22 +27743,22 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>112.2291914127358</v>
+        <v>138.2264334610072</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27789,10 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>107.8808499592034</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>142.5274097057342</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>163.816229425076</v>
       </c>
       <c r="C8" t="n">
-        <v>298.7913055047007</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27932,7 +27932,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>15.98334244851591</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27941,13 +27941,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>28.3814246922454</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27983,13 +27983,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>3.291764458076614</v>
       </c>
       <c r="H10" t="n">
         <v>148.5398113612452</v>
@@ -28065,7 +28065,7 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>115.9503191259191</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203964</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.424516079686581</v>
+        <v>2.424516079686574</v>
       </c>
       <c r="H2" t="n">
-        <v>24.83007530109021</v>
+        <v>24.83007530109013</v>
       </c>
       <c r="I2" t="n">
-        <v>93.47115616211703</v>
+        <v>93.47115616211674</v>
       </c>
       <c r="J2" t="n">
-        <v>205.7777716182992</v>
+        <v>205.7777716182986</v>
       </c>
       <c r="K2" t="n">
-        <v>308.4075372714323</v>
+        <v>308.4075372714313</v>
       </c>
       <c r="L2" t="n">
-        <v>382.6068212451406</v>
+        <v>382.6068212451394</v>
       </c>
       <c r="M2" t="n">
-        <v>425.7238090772668</v>
+        <v>425.7238090772655</v>
       </c>
       <c r="N2" t="n">
-        <v>432.6124653886763</v>
+        <v>432.612465388675</v>
       </c>
       <c r="O2" t="n">
-        <v>408.5036836212929</v>
+        <v>408.5036836212916</v>
       </c>
       <c r="P2" t="n">
-        <v>348.6484429040303</v>
+        <v>348.6484429040293</v>
       </c>
       <c r="Q2" t="n">
-        <v>261.8204608002545</v>
+        <v>261.8204608002537</v>
       </c>
       <c r="R2" t="n">
-        <v>152.2990081906124</v>
+        <v>152.2990081906119</v>
       </c>
       <c r="S2" t="n">
-        <v>55.24866016585803</v>
+        <v>55.24866016585786</v>
       </c>
       <c r="T2" t="n">
-        <v>10.61331913882802</v>
+        <v>10.61331913882798</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1939612863749265</v>
+        <v>0.1939612863749259</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.297230466598345</v>
+        <v>1.297230466598341</v>
       </c>
       <c r="H3" t="n">
-        <v>12.52851529583139</v>
+        <v>12.52851529583135</v>
       </c>
       <c r="I3" t="n">
-        <v>44.66341738068864</v>
+        <v>44.66341738068851</v>
       </c>
       <c r="J3" t="n">
-        <v>122.5598310569954</v>
+        <v>122.5598310569951</v>
       </c>
       <c r="K3" t="n">
-        <v>209.4742723190845</v>
+        <v>209.4742723190839</v>
       </c>
       <c r="L3" t="n">
-        <v>281.6640098638205</v>
+        <v>281.6640098638197</v>
       </c>
       <c r="M3" t="n">
-        <v>328.6886142780104</v>
+        <v>328.6886142780095</v>
       </c>
       <c r="N3" t="n">
-        <v>337.3880238544529</v>
+        <v>337.3880238544519</v>
       </c>
       <c r="O3" t="n">
-        <v>308.6441277261422</v>
+        <v>308.6441277261413</v>
       </c>
       <c r="P3" t="n">
-        <v>247.7141230471875</v>
+        <v>247.7141230471868</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.5903311398168</v>
+        <v>165.5903311398163</v>
       </c>
       <c r="R3" t="n">
-        <v>80.54208107529027</v>
+        <v>80.54208107529001</v>
       </c>
       <c r="S3" t="n">
-        <v>24.09548695633328</v>
+        <v>24.09548695633321</v>
       </c>
       <c r="T3" t="n">
-        <v>5.228749117560872</v>
+        <v>5.228749117560856</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08534410964462801</v>
+        <v>0.08534410964462774</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.087554446400396</v>
+        <v>1.087554446400392</v>
       </c>
       <c r="H4" t="n">
-        <v>9.669347714359887</v>
+        <v>9.669347714359859</v>
       </c>
       <c r="I4" t="n">
-        <v>32.705728260841</v>
+        <v>32.7057282608409</v>
       </c>
       <c r="J4" t="n">
-        <v>76.89009936050796</v>
+        <v>76.89009936050773</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3540529545187</v>
+        <v>126.3540529545183</v>
       </c>
       <c r="L4" t="n">
-        <v>161.6896856039279</v>
+        <v>161.6896856039274</v>
       </c>
       <c r="M4" t="n">
-        <v>170.4791029025638</v>
+        <v>170.4791029025633</v>
       </c>
       <c r="N4" t="n">
-        <v>166.4254908750715</v>
+        <v>166.4254908750711</v>
       </c>
       <c r="O4" t="n">
-        <v>153.7208775693942</v>
+        <v>153.7208775693937</v>
       </c>
       <c r="P4" t="n">
-        <v>131.534766862826</v>
+        <v>131.5347668628256</v>
       </c>
       <c r="Q4" t="n">
-        <v>91.06785459812768</v>
+        <v>91.0678545981274</v>
       </c>
       <c r="R4" t="n">
-        <v>48.90040265360323</v>
+        <v>48.90040265360308</v>
       </c>
       <c r="S4" t="n">
-        <v>18.95310794317779</v>
+        <v>18.95310794317774</v>
       </c>
       <c r="T4" t="n">
-        <v>4.64682354371078</v>
+        <v>4.646823543710766</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05932115162183983</v>
+        <v>0.05932115162183965</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31847,19 +31847,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32315,22 +32315,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496632</v>
+        <v>405.6377363145765</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
@@ -32339,7 +32339,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,37 +32546,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -32740,7 +32740,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,37 +32783,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32880,7 +32880,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32977,7 +32977,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33026,31 +33026,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>301.1823051500296</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33117,7 +33117,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33214,7 +33214,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33263,31 +33263,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>320.9147064709962</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33354,7 +33354,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33451,7 +33451,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33500,22 +33500,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>301.6445156724557</v>
+        <v>332.1692388321062</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q33" t="n">
         <v>375.5996128485291</v>
@@ -33524,7 +33524,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33591,7 +33591,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33688,7 +33688,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33737,31 +33737,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>357.9244589488883</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>301.644515672455</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33828,7 +33828,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33925,7 +33925,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33974,31 +33974,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>414.644818552487</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34065,7 +34065,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34162,7 +34162,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34211,22 +34211,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>301.1823051500296</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>332.1692388321062</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q42" t="n">
         <v>375.5996128485291</v>
@@ -34235,7 +34235,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34302,7 +34302,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34399,7 +34399,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34448,22 +34448,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>301.1823051500289</v>
       </c>
       <c r="N45" t="n">
-        <v>366.8427442359099</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q45" t="n">
         <v>375.5996128485291</v>
@@ -34472,7 +34472,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796262</v>
@@ -34539,7 +34539,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.73186709161291</v>
+        <v>24.73186709161229</v>
       </c>
       <c r="K2" t="n">
-        <v>88.31768622645171</v>
+        <v>88.31768622645075</v>
       </c>
       <c r="L2" t="n">
-        <v>146.8404062751533</v>
+        <v>146.8404062751521</v>
       </c>
       <c r="M2" t="n">
-        <v>195.377575849994</v>
+        <v>195.3775758499927</v>
       </c>
       <c r="N2" t="n">
-        <v>203.1994017920854</v>
+        <v>203.1994017920841</v>
       </c>
       <c r="O2" t="n">
-        <v>178.4054721996061</v>
+        <v>178.4054721996049</v>
       </c>
       <c r="P2" t="n">
-        <v>117.4154471487607</v>
+        <v>117.4154471487597</v>
       </c>
       <c r="Q2" t="n">
-        <v>39.51477092580504</v>
+        <v>39.51477092580424</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>71.63283334472553</v>
+        <v>71.6328333447249</v>
       </c>
       <c r="L3" t="n">
-        <v>143.1096300839463</v>
+        <v>143.1096300839455</v>
       </c>
       <c r="M3" t="n">
-        <v>186.5545803559921</v>
+        <v>250.9858676618281</v>
       </c>
       <c r="N3" t="n">
-        <v>250.9858676618302</v>
+        <v>206.0463117711186</v>
       </c>
       <c r="O3" t="n">
-        <v>166.0478832816978</v>
+        <v>166.0478832816968</v>
       </c>
       <c r="P3" t="n">
-        <v>149.8632757274817</v>
+        <v>113.7397156328565</v>
       </c>
       <c r="Q3" t="n">
-        <v>25.60855705379532</v>
+        <v>42.24038573329025</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>71.87713056893386</v>
+        <v>71.87713056892821</v>
       </c>
       <c r="L4" t="n">
-        <v>189.2797108642441</v>
+        <v>189.2797108642436</v>
       </c>
       <c r="M4" t="n">
-        <v>210.0629798644044</v>
+        <v>210.0629798644039</v>
       </c>
       <c r="N4" t="n">
-        <v>210.5576632543001</v>
+        <v>210.5576632542997</v>
       </c>
       <c r="O4" t="n">
-        <v>178.3060054834338</v>
+        <v>178.3060054834334</v>
       </c>
       <c r="P4" t="n">
-        <v>128.8133261277194</v>
+        <v>128.8133261277191</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.905811346433296</v>
+        <v>4.905811346433012</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35021,10 +35021,10 @@
         <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>238.3094620181792</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>263.7138800015061</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
         <v>171.6550983098281</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,28 +35252,28 @@
         <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>246.5110155176337</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
         <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>519.7112232632726</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="O9" t="n">
         <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>535.1379358731701</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
         <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>13.85280893410651</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35495,19 +35495,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35732,19 +35732,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663299</v>
+        <v>274.2960242312432</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>274.2960242312436</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902405</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36525,7 +36525,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060455</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>159.0482712280113</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
         <v>397.5465471980852</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>189.5729943876629</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
         <v>397.5465471980852</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>159.0482712280113</v>
+        <v>189.5729943876618</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>226.582746865555</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>159.0482712280106</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819473</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980852</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>272.5107846304687</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819473</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980852</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>159.0482712280113</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>189.5729943876618</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980852</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902405</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>159.0482712280106</v>
       </c>
       <c r="N45" t="n">
-        <v>235.5010321525766</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
